--- a/Team-Mem/document/회원관리_임시데이터.xlsx
+++ b/Team-Mem/document/회원관리_임시데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505105\Desktop\회원관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505206\Documents\workspace\2024-Team-Mem\Team-Mem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA52FF9-FD84-4404-874F-8882F61DA9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648D12FC-BEFA-4DEE-8E1E-F77FD0966E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1650" windowWidth="22560" windowHeight="13620" activeTab="4" xr2:uid="{5628D437-E58A-4A2D-924B-0FCF9FF81C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5628D437-E58A-4A2D-924B-0FCF9FF81C47}"/>
   </bookViews>
   <sheets>
     <sheet name="업체" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280AF477-0196-4B7D-B65B-4FA657AA8D45}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A8BC3-A5A4-4F8E-AC64-9241CE8E9209}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Team-Mem/document/회원관리_임시데이터.xlsx
+++ b/Team-Mem/document/회원관리_임시데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505206\Documents\workspace\2024-Team-Mem\Team-Mem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648D12FC-BEFA-4DEE-8E1E-F77FD0966E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FBFA4-03E8-40EB-B8A5-A618B1170024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5628D437-E58A-4A2D-924B-0FCF9FF81C47}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>c_code</t>
   </si>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>미술</t>
+  </si>
+  <si>
+    <t>c_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,15 +627,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280AF477-0196-4B7D-B65B-4FA657AA8D45}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,8 +651,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -658,8 +668,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -672,8 +685,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -686,8 +702,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -700,8 +719,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -713,6 +735,9 @@
       </c>
       <c r="D6" t="s">
         <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +752,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Team-Mem/document/회원관리_임시데이터.xlsx
+++ b/Team-Mem/document/회원관리_임시데이터.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505206\Documents\workspace\2024-Team-Mem\Team-Mem\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java-Server\2024-Team-Mem\Team-Mem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FBFA4-03E8-40EB-B8A5-A618B1170024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE54E5C1-DB35-4A99-AD33-D0ACF69B3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5628D437-E58A-4A2D-924B-0FCF9FF81C47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{5628D437-E58A-4A2D-924B-0FCF9FF81C47}"/>
   </bookViews>
   <sheets>
-    <sheet name="업체" sheetId="1" r:id="rId1"/>
-    <sheet name="회원" sheetId="2" r:id="rId2"/>
+    <sheet name="회원" sheetId="2" r:id="rId1"/>
+    <sheet name="업체" sheetId="1" r:id="rId2"/>
     <sheet name="강사" sheetId="3" r:id="rId3"/>
     <sheet name="수업" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="공지사항" sheetId="8" r:id="rId5"/>
+    <sheet name="수강권" sheetId="5" r:id="rId6"/>
+    <sheet name="회원-수강권" sheetId="6" r:id="rId7"/>
+    <sheet name="회원-업체" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">회원!$A$1:$A$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>c_code</t>
   </si>
@@ -257,6 +263,240 @@
   </si>
   <si>
     <t>c_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_iseq</t>
+  </si>
+  <si>
+    <t>r_uid</t>
+  </si>
+  <si>
+    <t>r_sdate</t>
+  </si>
+  <si>
+    <t>r_edate</t>
+  </si>
+  <si>
+    <t>admin001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>us_uid</t>
+  </si>
+  <si>
+    <t>us_ccode</t>
+  </si>
+  <si>
+    <t>us_uname</t>
+  </si>
+  <si>
+    <t>us_utel</t>
+  </si>
+  <si>
+    <t>us_cname</t>
+  </si>
+  <si>
+    <t>user003</t>
+  </si>
+  <si>
+    <t>user004</t>
+  </si>
+  <si>
+    <t>user005</t>
+  </si>
+  <si>
+    <t>admin003</t>
+  </si>
+  <si>
+    <t>password3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminpass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3333-4444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5555-6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7777-8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user006</t>
+  </si>
+  <si>
+    <t>user007</t>
+  </si>
+  <si>
+    <t>user008</t>
+  </si>
+  <si>
+    <t>password6</t>
+  </si>
+  <si>
+    <t>사용자6</t>
+  </si>
+  <si>
+    <t>010-1122-3344</t>
+  </si>
+  <si>
+    <t>password7</t>
+  </si>
+  <si>
+    <t>사용자7</t>
+  </si>
+  <si>
+    <t>010-2233-4455</t>
+  </si>
+  <si>
+    <t>password8</t>
+  </si>
+  <si>
+    <t>사용자8</t>
+  </si>
+  <si>
+    <t>010-3344-5566</t>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3122-4172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_tcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_ccode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_seq</t>
+  </si>
+  <si>
+    <t>n_title</t>
+  </si>
+  <si>
+    <t>n_content</t>
+  </si>
+  <si>
+    <t>n_uid</t>
+  </si>
+  <si>
+    <t>n_ccode</t>
+  </si>
+  <si>
+    <t>제목1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,11 +866,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AEB1DB-30E1-422B-9360-611B7E81DA0C}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280AF477-0196-4B7D-B65B-4FA657AA8D45}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -703,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,7 +1204,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -747,119 +1214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AEB1DB-30E1-422B-9360-611B7E81DA0C}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4873291-625F-46C5-9DD8-E21DD0E1CE4A}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4873291-625F-46C5-9DD8-E21DD0E1CE4A}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,6 +1292,20 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF50D0-BD51-4D64-8D7B-1242695A45B5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,7 +1329,7 @@
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -971,8 +1345,14 @@
       <c r="E1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -988,8 +1368,14 @@
       <c r="E2" s="2">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1005,8 +1391,14 @@
       <c r="E3" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1022,8 +1414,14 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1038,6 +1436,12 @@
       </c>
       <c r="E5" s="2">
         <v>0.66666666666666663</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1047,6 +1451,158 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D615E28E-1AA3-43AF-B227-E67D7A0D079F}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A8BC3-A5A4-4F8E-AC64-9241CE8E9209}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1183,4 +1739,349 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70593E0C-57E6-46BE-89AD-579898FE343C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45387</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45389</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45392</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45394</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45387</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45389</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45392</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45394</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0911A263-D48E-4409-AB4C-FB330EBB5919}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>